--- a/output-partA.xlsx
+++ b/output-partA.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="output-partA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -863,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
